--- a/miguelgrisanti_statsassesment_1.xlsx
+++ b/miguelgrisanti_statsassesment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelgris/Downloads/excelassessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976BC4E0-059F-2B44-9361-AE297E70CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B95E0AE-CF45-DB4E-A151-7635B42C0F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="21640" windowHeight="12120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,7 +1013,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1055,9 +1055,12 @@
         <v>38</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
     </row>
@@ -1069,15 +1072,20 @@
         <v>40</v>
       </c>
       <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>2/2</f>
-        <v>1</v>
+        <f>1-0.44</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J6" s="10">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K6" s="10">
-        <f>SUM(I6:J6)</f>
-        <v>1</v>
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="10">
+        <f>SUM(I6:K6)</f>
+        <v>1.0044444444444445</v>
       </c>
       <c r="O6" s="10"/>
     </row>
@@ -1089,8 +1097,8 @@
         <v>42</v>
       </c>
       <c r="I7">
-        <f>SUM(I5:J5)/COUNT(I5:J5)</f>
-        <v>1.5</v>
+        <f>AVERAGE(I5:K5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
